--- a/resultados/tiempos_p_3_v_30_Mapbox.xlsx
+++ b/resultados/tiempos_p_3_v_30_Mapbox.xlsx
@@ -1701,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
@@ -1718,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C76" t="n">
         <v>4</v>
@@ -1735,7 +1735,7 @@
         <v>19</v>
       </c>
       <c r="B77" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
@@ -1752,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="B78" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
@@ -1769,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="B79" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="B80" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
@@ -1803,7 +1803,7 @@
         <v>460</v>
       </c>
       <c r="B81" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
@@ -1820,7 +1820,7 @@
         <v>480</v>
       </c>
       <c r="B82" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C82" t="n">
         <v>4</v>
@@ -1837,7 +1837,7 @@
         <v>506</v>
       </c>
       <c r="B83" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
@@ -1854,7 +1854,7 @@
         <v>679</v>
       </c>
       <c r="B84" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
@@ -1871,7 +1871,7 @@
         <v>721</v>
       </c>
       <c r="B85" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
@@ -1888,7 +1888,7 @@
         <v>810</v>
       </c>
       <c r="B86" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -1905,7 +1905,7 @@
         <v>896</v>
       </c>
       <c r="B87" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
@@ -1922,7 +1922,7 @@
         <v>913</v>
       </c>
       <c r="B88" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
@@ -1939,7 +1939,7 @@
         <v>1002</v>
       </c>
       <c r="B89" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
@@ -1956,7 +1956,7 @@
         <v>1093</v>
       </c>
       <c r="B90" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
@@ -1973,7 +1973,7 @@
         <v>1135</v>
       </c>
       <c r="B91" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
@@ -1990,7 +1990,7 @@
         <v>1137</v>
       </c>
       <c r="B92" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
@@ -2007,7 +2007,7 @@
         <v>1345</v>
       </c>
       <c r="B93" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
@@ -2024,7 +2024,7 @@
         <v>1834</v>
       </c>
       <c r="B94" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>2300</v>
       </c>
       <c r="B95" t="n">
-        <v>7.561784366666667</v>
+        <v>7.561793733333333</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
@@ -31638,7 +31638,7 @@
         <v>214</v>
       </c>
       <c r="B1836" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1836" t="n">
         <v>8</v>
@@ -31655,7 +31655,7 @@
         <v>245</v>
       </c>
       <c r="B1837" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1837" t="n">
         <v>8</v>
@@ -31672,7 +31672,7 @@
         <v>303</v>
       </c>
       <c r="B1838" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1838" t="n">
         <v>8</v>
@@ -31689,7 +31689,7 @@
         <v>305</v>
       </c>
       <c r="B1839" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1839" t="n">
         <v>8</v>
@@ -31706,7 +31706,7 @@
         <v>312</v>
       </c>
       <c r="B1840" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1840" t="n">
         <v>8</v>
@@ -31723,7 +31723,7 @@
         <v>432</v>
       </c>
       <c r="B1841" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1841" t="n">
         <v>8</v>
@@ -31740,7 +31740,7 @@
         <v>442</v>
       </c>
       <c r="B1842" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1842" t="n">
         <v>8</v>
@@ -31757,7 +31757,7 @@
         <v>444</v>
       </c>
       <c r="B1843" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1843" t="n">
         <v>8</v>
@@ -31774,7 +31774,7 @@
         <v>469</v>
       </c>
       <c r="B1844" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1844" t="n">
         <v>8</v>
@@ -31791,7 +31791,7 @@
         <v>470</v>
       </c>
       <c r="B1845" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1845" t="n">
         <v>8</v>
@@ -31808,7 +31808,7 @@
         <v>483</v>
       </c>
       <c r="B1846" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1846" t="n">
         <v>8</v>
@@ -31825,7 +31825,7 @@
         <v>492</v>
       </c>
       <c r="B1847" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1847" t="n">
         <v>8</v>
@@ -31842,7 +31842,7 @@
         <v>502</v>
       </c>
       <c r="B1848" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1848" t="n">
         <v>8</v>
@@ -31859,7 +31859,7 @@
         <v>536</v>
       </c>
       <c r="B1849" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1849" t="n">
         <v>8</v>
@@ -31876,7 +31876,7 @@
         <v>540</v>
       </c>
       <c r="B1850" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1850" t="n">
         <v>8</v>
@@ -31893,7 +31893,7 @@
         <v>576</v>
       </c>
       <c r="B1851" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1851" t="n">
         <v>8</v>
@@ -31910,7 +31910,7 @@
         <v>754</v>
       </c>
       <c r="B1852" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1852" t="n">
         <v>8</v>
@@ -31927,7 +31927,7 @@
         <v>773</v>
       </c>
       <c r="B1853" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1853" t="n">
         <v>8</v>
@@ -31944,7 +31944,7 @@
         <v>783</v>
       </c>
       <c r="B1854" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1854" t="n">
         <v>8</v>
@@ -31961,7 +31961,7 @@
         <v>978</v>
       </c>
       <c r="B1855" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1855" t="n">
         <v>8</v>
@@ -31978,7 +31978,7 @@
         <v>1099</v>
       </c>
       <c r="B1856" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1856" t="n">
         <v>8</v>
@@ -31995,7 +31995,7 @@
         <v>1122</v>
       </c>
       <c r="B1857" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1857" t="n">
         <v>8</v>
@@ -32012,7 +32012,7 @@
         <v>1247</v>
       </c>
       <c r="B1858" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1858" t="n">
         <v>8</v>
@@ -32029,7 +32029,7 @@
         <v>1390</v>
       </c>
       <c r="B1859" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1859" t="n">
         <v>8</v>
@@ -32046,7 +32046,7 @@
         <v>1391</v>
       </c>
       <c r="B1860" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1860" t="n">
         <v>8</v>
@@ -32063,7 +32063,7 @@
         <v>1406</v>
       </c>
       <c r="B1861" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1861" t="n">
         <v>8</v>
@@ -32080,7 +32080,7 @@
         <v>1533</v>
       </c>
       <c r="B1862" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1862" t="n">
         <v>8</v>
@@ -32097,7 +32097,7 @@
         <v>1663</v>
       </c>
       <c r="B1863" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1863" t="n">
         <v>8</v>
@@ -32114,7 +32114,7 @@
         <v>1746</v>
       </c>
       <c r="B1864" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1864" t="n">
         <v>8</v>
@@ -32131,7 +32131,7 @@
         <v>1941</v>
       </c>
       <c r="B1865" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1865" t="n">
         <v>8</v>
@@ -32148,7 +32148,7 @@
         <v>2135</v>
       </c>
       <c r="B1866" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1866" t="n">
         <v>8</v>
@@ -32165,7 +32165,7 @@
         <v>2176</v>
       </c>
       <c r="B1867" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1867" t="n">
         <v>8</v>
@@ -32182,7 +32182,7 @@
         <v>2255</v>
       </c>
       <c r="B1868" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1868" t="n">
         <v>8</v>
@@ -32199,7 +32199,7 @@
         <v>2282</v>
       </c>
       <c r="B1869" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1869" t="n">
         <v>8</v>
@@ -32216,7 +32216,7 @@
         <v>2610</v>
       </c>
       <c r="B1870" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1870" t="n">
         <v>8</v>
@@ -32233,7 +32233,7 @@
         <v>2647</v>
       </c>
       <c r="B1871" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1871" t="n">
         <v>8</v>
@@ -32250,7 +32250,7 @@
         <v>2649</v>
       </c>
       <c r="B1872" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1872" t="n">
         <v>8</v>
@@ -32267,7 +32267,7 @@
         <v>2721</v>
       </c>
       <c r="B1873" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1873" t="n">
         <v>8</v>
@@ -32284,7 +32284,7 @@
         <v>2728</v>
       </c>
       <c r="B1874" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1874" t="n">
         <v>8</v>
@@ -32301,7 +32301,7 @@
         <v>2734</v>
       </c>
       <c r="B1875" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1875" t="n">
         <v>8</v>
@@ -32318,7 +32318,7 @@
         <v>2738</v>
       </c>
       <c r="B1876" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1876" t="n">
         <v>8</v>
@@ -32335,7 +32335,7 @@
         <v>2739</v>
       </c>
       <c r="B1877" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1877" t="n">
         <v>8</v>
@@ -32352,7 +32352,7 @@
         <v>2828</v>
       </c>
       <c r="B1878" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1878" t="n">
         <v>8</v>
@@ -32369,7 +32369,7 @@
         <v>2873</v>
       </c>
       <c r="B1879" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1879" t="n">
         <v>8</v>
@@ -32386,7 +32386,7 @@
         <v>2900</v>
       </c>
       <c r="B1880" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1880" t="n">
         <v>8</v>
@@ -32403,7 +32403,7 @@
         <v>2995</v>
       </c>
       <c r="B1881" t="n">
-        <v>6.526196366666666</v>
+        <v>6.526192699999999</v>
       </c>
       <c r="C1881" t="n">
         <v>8</v>
@@ -42127,7 +42127,7 @@
         <v>560</v>
       </c>
       <c r="B2453" t="n">
-        <v>5.538205199999999</v>
+        <v>5.538202066666667</v>
       </c>
       <c r="C2453" t="n">
         <v>8</v>
@@ -42144,7 +42144,7 @@
         <v>1820</v>
       </c>
       <c r="B2454" t="n">
-        <v>5.538205199999999</v>
+        <v>5.538202066666667</v>
       </c>
       <c r="C2454" t="n">
         <v>8</v>
@@ -42161,7 +42161,7 @@
         <v>2851</v>
       </c>
       <c r="B2455" t="n">
-        <v>5.538205199999999</v>
+        <v>5.538202066666667</v>
       </c>
       <c r="C2455" t="n">
         <v>8</v>
@@ -47873,7 +47873,7 @@
         <v>1837</v>
       </c>
       <c r="B2791" t="n">
-        <v>7.321679700000001</v>
+        <v>7.321688533333333</v>
       </c>
       <c r="C2791" t="n">
         <v>4</v>
@@ -48026,7 +48026,7 @@
         <v>1980</v>
       </c>
       <c r="B2800" t="n">
-        <v>7.675213033333334</v>
+        <v>7.675223433333333</v>
       </c>
       <c r="C2800" t="n">
         <v>4</v>
